--- a/public/template/rental_invoice.xlsx
+++ b/public/template/rental_invoice.xlsx
@@ -79,75 +79,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>九龍荔枝角青山道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>654-656</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號浪淘大廈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>室</t>
-    </r>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -896,6 +827,95 @@
   </si>
   <si>
     <t>，其應繳租金將不得以任何形式退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>九龍荔枝角青山道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>668-680</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大廈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>室</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,6 +1405,63 @@
     <xf numFmtId="40" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1393,63 +1470,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1803,7 +1823,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1818,14 +1838,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1">
-      <c r="E1" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="36"/>
+      <c r="E1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="55"/>
     </row>
     <row r="3" spans="1:6">
       <c r="E3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="17">
         <v>43466</v>
@@ -1836,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="18">
         <v>45000</v>
@@ -1854,54 +1874,54 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="23"/>
       <c r="E17" s="26"/>
       <c r="F17" s="29">
@@ -1929,9 +1949,9 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="24"/>
       <c r="E20" s="27"/>
       <c r="F20" s="30">
@@ -1939,9 +1959,9 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="25"/>
       <c r="E21" s="28"/>
       <c r="F21" s="31">
@@ -1949,9 +1969,9 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="24"/>
       <c r="E22" s="27"/>
       <c r="F22" s="30">
@@ -1959,9 +1979,9 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="25"/>
       <c r="E23" s="28"/>
       <c r="F23" s="31">
@@ -1969,9 +1989,9 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="24"/>
       <c r="E24" s="27"/>
       <c r="F24" s="30">
@@ -1979,9 +1999,9 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="25"/>
       <c r="E25" s="28"/>
       <c r="F25" s="31">
@@ -1989,9 +2009,9 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="24"/>
       <c r="E26" s="27"/>
       <c r="F26" s="30">
@@ -1999,9 +2019,9 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="25"/>
       <c r="E27" s="28"/>
       <c r="F27" s="31">
@@ -2009,9 +2029,9 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="24"/>
       <c r="E28" s="27"/>
       <c r="F28" s="30">
@@ -2019,9 +2039,9 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="25"/>
       <c r="E29" s="28"/>
       <c r="F29" s="31">
@@ -2029,38 +2049,38 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
+      <c r="A32" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6">
       <c r="E33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="32">
         <f>SUM(F17:F29)</f>
@@ -2068,13 +2088,13 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="32">
         <v>0</v>
@@ -2085,7 +2105,7 @@
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="E35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" s="33">
         <v>0</v>
@@ -2096,7 +2116,7 @@
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="E36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="32">
         <f>ROUND(F34*F35,2)</f>
@@ -2108,20 +2128,20 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="E37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1">
-      <c r="A38" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="E38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F38" s="35">
         <f>F33+F36+F37</f>
@@ -2137,58 +2157,58 @@
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="E40" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="53"/>
+      <c r="E40" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="E41" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="53"/>
+      <c r="E41" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="37"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
+      <c r="A43" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -2196,141 +2216,146 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
@@ -2340,16 +2365,11 @@
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
